--- a/others/RPi5/RPI5_Pinbelegung.xlsx
+++ b/others/RPi5/RPI5_Pinbelegung.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\svn_work\EDV-Dienstleistungen\Knappitsch-Heinz\Motor-Prüfstand\Elektronik\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserData\GIT\RPI_Measurement_System\others\RPi5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C59A1BF-8830-42A1-BD8D-ACCEBCFCA7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F65B0D1-4D9F-48D2-BED6-6AAC7B41B5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$5:$O$5</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="294">
   <si>
     <t>GPIO Number</t>
   </si>
@@ -63,9 +66,6 @@
     <t>F9</t>
   </si>
   <si>
-    <t>GPIO0</t>
-  </si>
-  <si>
     <t>SPI0_SIO[3]</t>
   </si>
   <si>
@@ -90,9 +90,6 @@
     <t>SPI2_CSn[0]</t>
   </si>
   <si>
-    <t>GPIO1</t>
-  </si>
-  <si>
     <t>SPI0_SIO[2]</t>
   </si>
   <si>
@@ -147,9 +144,6 @@
     <t>SPI2_SIO[0]</t>
   </si>
   <si>
-    <t>GPIO3</t>
-  </si>
-  <si>
     <t>SPI0_CSn[2]</t>
   </si>
   <si>
@@ -177,9 +171,6 @@
     <t>SPI2_SCLK</t>
   </si>
   <si>
-    <t>GPIO4</t>
-  </si>
-  <si>
     <t>GPCLK[0]</t>
   </si>
   <si>
@@ -207,9 +198,6 @@
     <t>SPI3_CSn[0]</t>
   </si>
   <si>
-    <t>GPIO5</t>
-  </si>
-  <si>
     <t>GPCLK[1]</t>
   </si>
   <si>
@@ -237,9 +225,6 @@
     <t>SPI3_SIO[1]</t>
   </si>
   <si>
-    <t>GPIO6</t>
-  </si>
-  <si>
     <t>GPCLK[2]</t>
   </si>
   <si>
@@ -267,9 +252,6 @@
     <t>SPI3_SIO[0]</t>
   </si>
   <si>
-    <t>GPIO7</t>
-  </si>
-  <si>
     <t>SPI0_CSn[1]</t>
   </si>
   <si>
@@ -297,9 +279,6 @@
     <t>SPI3_SCLK</t>
   </si>
   <si>
-    <t>GPIO8</t>
-  </si>
-  <si>
     <t>SPI0_CSn[0]</t>
   </si>
   <si>
@@ -321,9 +300,6 @@
     <t>SPI4_CSn[0]</t>
   </si>
   <si>
-    <t>GPIO9</t>
-  </si>
-  <si>
     <t>SPI0_SIO[1]</t>
   </si>
   <si>
@@ -852,44 +828,95 @@
     <t>ID EEPROM</t>
   </si>
   <si>
-    <t>Modul Name</t>
-  </si>
-  <si>
     <t>Beschreibung</t>
   </si>
   <si>
-    <t>MCC118</t>
-  </si>
-  <si>
-    <t>StepperMotor</t>
-  </si>
-  <si>
-    <t>Speed1</t>
-  </si>
-  <si>
     <t>DigitalOutput</t>
   </si>
   <si>
     <t>FrequencyCounter</t>
   </si>
   <si>
-    <t>KeepAliveReceived</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Pin Belegung</t>
   </si>
   <si>
-    <t>SPI reserved??</t>
+    <t>GPIO00</t>
+  </si>
+  <si>
+    <t>GPIO01</t>
+  </si>
+  <si>
+    <t>GPIO03</t>
+  </si>
+  <si>
+    <t>GPIO04</t>
+  </si>
+  <si>
+    <t>GPIO05</t>
+  </si>
+  <si>
+    <t>GPIO06</t>
+  </si>
+  <si>
+    <t>GPIO07</t>
+  </si>
+  <si>
+    <t>GPIO08</t>
+  </si>
+  <si>
+    <t>GPIO09</t>
+  </si>
+  <si>
+    <t>reserved</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>reserved - I2C</t>
+  </si>
+  <si>
+    <t>reserved - UART</t>
+  </si>
+  <si>
+    <t>reserved - SPI0_CSn[1]</t>
+  </si>
+  <si>
+    <t>free - DIO</t>
+  </si>
+  <si>
+    <t>Digital Input</t>
+  </si>
+  <si>
+    <t>Keep Alive LED</t>
+  </si>
+  <si>
+    <t>Kommentar</t>
+  </si>
+  <si>
+    <t>PCB connection</t>
+  </si>
+  <si>
+    <t>1/2: GND, DIR, EN, STEP</t>
+  </si>
+  <si>
+    <t>2/2: 3.3V, &lt;signal&gt;, GND</t>
+  </si>
+  <si>
+    <t>3.3V, GND, DATA, CLOCK</t>
+  </si>
+  <si>
+    <t>3.3V, GND, &lt;signal&gt;</t>
+  </si>
+  <si>
+    <t>LED on breakout board</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -913,8 +940,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -924,36 +964,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,6 +988,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC864C8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,53 +1065,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC864C8"/>
+      <color rgb="FF000000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1105,8 +1133,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>231295</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>926620</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -1173,13 +1201,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>304801</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -1199,6 +1227,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:grayscl/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1210,7 +1239,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10953750" y="7820025"/>
+          <a:off x="10258425" y="6781800"/>
           <a:ext cx="7305676" cy="6229350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1245,23 +1274,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1076326</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1062878</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>162620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 8">
+        <xdr:cNvPr id="12" name="Rectangle 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C7BA68F-586C-8D7A-860C-0B1ACBB934D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C361A644-F179-4D88-A40B-53A0CD64D1CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1269,14 +1298,212 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13430251" y="11610976"/>
+          <a:off x="11938775" y="11908110"/>
+          <a:ext cx="777127" cy="372169"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-AT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>10354</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1085851</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>10354</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D61F233F-DE5C-43B0-AFCB-5CED05105F4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11944351" y="9268654"/>
           <a:ext cx="800100" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="127000">
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-AT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1219201</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6CD1D4A-5236-4D94-A8F7-DC99ADE0158F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14277976" y="7953376"/>
+          <a:ext cx="428624" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-AT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1076324</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1190624</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92964F7A-0949-4CE5-A271-DD43D9A03C74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12734924" y="7953376"/>
+          <a:ext cx="1514475" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -1312,22 +1539,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 9">
+        <xdr:cNvPr id="13" name="Rectangle 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{049C87A6-333E-41C9-B3A4-2915087544EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C5D672-9EF0-408D-BC31-BAF2C8A18780}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1335,14 +1562,674 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13382625" y="8963026"/>
-          <a:ext cx="2057399" cy="381000"/>
+          <a:off x="13944600" y="11906251"/>
+          <a:ext cx="762000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="127000">
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-AT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1095374</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B7A6D53-6DBF-41B0-A866-64F00A3D795B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12760097" y="10583637"/>
+          <a:ext cx="1144362" cy="376917"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-AT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1109942</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>168652</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20F94864-EAB0-440C-B515-4CAC3A95E22D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12768542" y="11906251"/>
+          <a:ext cx="756957" cy="378201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-AT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>453888</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>10354</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1253988</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>10354</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09B456D1-145F-42DA-A4A0-E5E08606910D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13512663" y="9268654"/>
+          <a:ext cx="800100" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-AT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>641537</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>25777</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{266B055A-F194-41C1-9103-827DF6275A7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11944351" y="7953376"/>
+          <a:ext cx="355786" cy="378201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-AT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1059366</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DE79E59-05CE-4FF0-9B97-1234009F4AFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11950474" y="10583637"/>
+          <a:ext cx="773615" cy="376917"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-AT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1123951</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>10354</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>10354</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DC5384D-EA40-4025-A479-EEC688690FA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12782551" y="9268654"/>
+          <a:ext cx="714374" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="C864C8"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-AT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>904876</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96B13B50-EF1A-4AC3-9CB9-D0963CF79371}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13963651" y="10582276"/>
+          <a:ext cx="342899" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="C864C8"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-AT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1E3E6C1-591A-428F-A47C-3B0E4F33B705}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13554076" y="11906251"/>
+          <a:ext cx="342899" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="C864C8"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-AT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1304926</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>10354</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>10354</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31764F17-8C51-4C93-AD84-BC72C3926C1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14363701" y="9268654"/>
+          <a:ext cx="342899" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="C864C8"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-AT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>667311</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1023097</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>25777</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F481226-C724-4EE7-8916-1496E39A8F88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12325911" y="7953376"/>
+          <a:ext cx="355786" cy="378201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
           <a:solidFill>
             <a:srgbClr val="FFFF00"/>
           </a:solidFill>
@@ -1378,22 +2265,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>276226</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:colOff>1292039</xdr:colOff>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1076326</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>178177</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 10">
+        <xdr:cNvPr id="28" name="Rectangle 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{074287E8-F896-4608-8FF4-B20C5E10B0DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F354E14-CFDD-4FDB-8BB0-6BD62AFB01D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1401,82 +2288,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12630151" y="10287001"/>
-          <a:ext cx="800100" cy="381000"/>
+          <a:off x="14350814" y="10582276"/>
+          <a:ext cx="355786" cy="378201"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="127000">
+        <a:ln w="76200">
           <a:solidFill>
-            <a:srgbClr val="92D050"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="de-AT" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1085851</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C361A644-F179-4D88-A40B-53A0CD64D1CB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12639676" y="12944476"/>
-          <a:ext cx="800100" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="127000">
-          <a:solidFill>
-            <a:srgbClr val="00B0F0"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1775,1144 +2596,1196 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="3" max="5" width="22.28515625" customWidth="1"/>
-    <col min="6" max="15" width="21" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="14" width="21" customWidth="1"/>
+    <col min="15" max="15" width="42.5703125" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
-        <v>284</v>
+      <c r="B2" s="8" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3" t="s">
+      <c r="C4" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="2:15" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="F5" s="14" t="s">
+      <c r="C5" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="F5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="G5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="H5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="I5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="J5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="K5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="L5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="M5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="N5" s="4" t="s">
         <v>11</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="7"/>
+      <c r="C6" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="25" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C7" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" s="4"/>
+      <c r="C7" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" s="14"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="C8" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="14"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="C9" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="14"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="C10" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="N10" s="11"/>
+      <c r="O10" s="14"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>67</v>
+      <c r="C11" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>250</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="O11" s="14"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>77</v>
+      <c r="D12" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>172</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C13" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>89</v>
+      <c r="C13" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C14" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="O14" s="4"/>
+      <c r="C14" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C15" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="O15" s="4"/>
+      <c r="C15" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C16" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="O16" s="4"/>
+      <c r="C16" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="M16" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C17" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="O17" s="4"/>
+      <c r="C17" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C18" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>130</v>
+      <c r="C18" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="11"/>
+      <c r="O18" s="15" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C19" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="N19" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>139</v>
+      <c r="C19" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" s="11"/>
+      <c r="O19" s="15" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>148</v>
+      <c r="C20" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="N20" s="11"/>
+      <c r="O20" s="15" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>157</v>
+      <c r="C21" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="N21" s="11"/>
+      <c r="O21" s="15" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C22" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>266</v>
+      <c r="C22" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="M22" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
+        <v>98</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="N22" s="11"/>
+      <c r="O22" s="15" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="C23" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>105</v>
+      </c>
       <c r="F23" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="N23" s="11"/>
+      <c r="O23" s="15" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="E24" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="O24" s="13" t="s">
         <v>279</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="N24" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C25" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="N25" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="O25" s="4"/>
+      <c r="C25" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O25" s="13" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C26" s="13" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="N26" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="O26" s="4"/>
+        <v>276</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C27" s="13" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="N27" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="O27" s="4"/>
+        <v>131</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="O27" s="13" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="O28" s="4"/>
+      <c r="C28" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="O28" s="13" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="O29" s="4"/>
+      <c r="C29" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="M29" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="O29" s="16" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C30" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="M30" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="N30" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="O30" s="4"/>
+      <c r="C30" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="L30" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="16" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C31" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="N31" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>240</v>
+      <c r="C31" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="M31" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="N31" s="11"/>
+      <c r="O31" s="16" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C32" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="N32" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="O32" s="4" t="s">
-        <v>250</v>
+      <c r="C32" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="M32" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="N32" s="11"/>
+      <c r="O32" s="16" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="I33" s="4" t="s">
+      <c r="C33" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D33" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="J33" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>167</v>
+      <c r="E33" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="L33" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="M33" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="N33" s="11"/>
+      <c r="O33" s="16" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B5:O5" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="2">
-    <mergeCell ref="G4:O4"/>
-    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:N4"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/others/RPi5/RPI5_Pinbelegung.xlsx
+++ b/others/RPi5/RPI5_Pinbelegung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserData\GIT\RPI_Measurement_System\others\RPi5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F65B0D1-4D9F-48D2-BED6-6AAC7B41B5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E451A150-5145-417B-B4EA-E35885CB1BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
